--- a/reports/assignment-3/Insertion Sort Benchmark.xlsx
+++ b/reports/assignment-3/Insertion Sort Benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/kakkadsasikumar_s_northeastern_edu/Documents/Assignments/PSA/Assignment 3 (Benchmark)/code-assignment-3/reports/assignment-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{70D53C3C-0EE3-4E3E-ADD7-19E4444D5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584003CA-53F7-47E4-A340-A860A1BCC58D}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{70D53C3C-0EE3-4E3E-ADD7-19E4444D5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A506BB6F-0151-4C17-8977-37176CC54CA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4469D93B-A125-4602-8FCE-E9BDBEFAA342}"/>
   </bookViews>
@@ -145,6 +145,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Input Size vs Runtime</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -191,10 +246,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$A$3:$A$7</c:f>
+              <c:f>'Insertion Sort'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -209,30 +264,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$B$3:$B$7</c:f>
+              <c:f>'Insertion Sort'!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.9181431599999901</c:v>
+                  <c:v>2.7815759</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45773708999999901</c:v>
+                  <c:v>3.9624510000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1448921699999901</c:v>
+                  <c:v>1.8939744999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1232432000000001</c:v>
+                  <c:v>2.3969008999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1797706799999998</c:v>
+                  <c:v>11.5279089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.708824400000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.973877799999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294.10025680000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1344.7668005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6517.4944162000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,10 +369,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$A$3:$A$7</c:f>
+              <c:f>'Insertion Sort'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -302,30 +387,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$C$3:$C$7</c:f>
+              <c:f>'Insertion Sort'!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67929249999999997</c:v>
+                  <c:v>1.2496562</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30238335</c:v>
+                  <c:v>0.67184849999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30629327000000001</c:v>
+                  <c:v>0.72323939999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14834459999999999</c:v>
+                  <c:v>0.5943176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13090539000000001</c:v>
+                  <c:v>0.375635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28957379999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31785389999999902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.439345599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53412660000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81157039999999903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,10 +492,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$A$3:$A$7</c:f>
+              <c:f>'Insertion Sort'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -395,30 +510,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$D$3:$D$7</c:f>
+              <c:f>'Insertion Sort'!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.55028003000000003</c:v>
+                  <c:v>1.1097443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26776197000000002</c:v>
+                  <c:v>1.5091395000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66460408000000004</c:v>
+                  <c:v>1.3182871</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90409163000000003</c:v>
+                  <c:v>1.2652063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8839935400000001</c:v>
+                  <c:v>4.7411310999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.439864699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.785726099999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139.79424729999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>484.40263829999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017.4459182999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,10 +615,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$A$3:$A$7</c:f>
+              <c:f>'Insertion Sort'!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -488,30 +633,60 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Insertion Sort'!$E$3:$E$7</c:f>
+              <c:f>'Insertion Sort'!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.42682968999999998</c:v>
+                  <c:v>1.399008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48624732999999998</c:v>
+                  <c:v>2.4142111000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1800054199999901</c:v>
+                  <c:v>1.6625114999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6041472799999998</c:v>
+                  <c:v>6.0461080000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1749818100000002</c:v>
+                  <c:v>23.164328900000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.488849599999902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>166.9294147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>802.27158650000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2653.5562722999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10781.2961373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1412,15 +1587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1446,6 +1621,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E281C3-E495-479E-B4D3-139A4FF80D5E}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,19 +1937,28 @@
     <col min="3" max="3" width="16.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="26" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1787,94 +1975,180 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="3">
-        <v>1.9181431599999901</v>
+        <v>2.7815759</v>
       </c>
       <c r="C3" s="3">
-        <v>0.67929249999999997</v>
+        <v>1.2496562</v>
       </c>
       <c r="D3" s="3">
-        <v>0.55028003000000003</v>
+        <v>1.1097443</v>
       </c>
       <c r="E3" s="3">
-        <v>0.42682968999999998</v>
+        <v>1.399008</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>200</v>
       </c>
       <c r="B4" s="3">
-        <v>0.45773708999999901</v>
+        <v>3.9624510000000002</v>
       </c>
       <c r="C4" s="3">
-        <v>0.30238335</v>
+        <v>0.67184849999999996</v>
       </c>
       <c r="D4" s="3">
-        <v>0.26776197000000002</v>
+        <v>1.5091395000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0.48624732999999998</v>
+        <v>2.4142111000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>400</v>
       </c>
       <c r="B5" s="3">
-        <v>1.1448921699999901</v>
+        <v>1.8939744999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>0.30629327000000001</v>
+        <v>0.72323939999999998</v>
       </c>
       <c r="D5" s="3">
-        <v>0.66460408000000004</v>
+        <v>1.3182871</v>
       </c>
       <c r="E5" s="3">
-        <v>1.1800054199999901</v>
+        <v>1.6625114999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>800</v>
       </c>
       <c r="B6" s="3">
-        <v>3.1232432000000001</v>
+        <v>2.3969008999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>0.14834459999999999</v>
+        <v>0.5943176</v>
       </c>
       <c r="D6" s="3">
-        <v>0.90409163000000003</v>
+        <v>1.2652063</v>
       </c>
       <c r="E6" s="3">
-        <v>3.6041472799999998</v>
+        <v>6.0461080000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1600</v>
       </c>
       <c r="B7" s="3">
-        <v>6.1797706799999998</v>
+        <v>11.5279089</v>
       </c>
       <c r="C7" s="3">
-        <v>0.13090539000000001</v>
+        <v>0.375635</v>
       </c>
       <c r="D7" s="3">
-        <v>2.8839935400000001</v>
+        <v>4.7411310999999996</v>
       </c>
       <c r="E7" s="3">
-        <v>8.1749818100000002</v>
+        <v>23.164328900000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3200</v>
+      </c>
+      <c r="B8" s="3">
+        <v>19.708824400000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.28957379999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.439864699999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>39.488849599999902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6400</v>
+      </c>
+      <c r="B9" s="3">
+        <v>74.973877799999997</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.31785389999999902</v>
+      </c>
+      <c r="D9" s="3">
+        <v>33.785726099999998</v>
+      </c>
+      <c r="E9" s="3">
+        <v>166.9294147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>12800</v>
+      </c>
+      <c r="B10" s="3">
+        <v>294.10025680000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.439345599999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>139.79424729999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>802.27158650000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>25600</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1344.7668005</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.53412660000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>484.40263829999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2653.5562722999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>51200</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6517.4944162000002</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.81157039999999903</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2017.4459182999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10781.2961373</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
